--- a/Problems/Array Problems.xlsx
+++ b/Problems/Array Problems.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usf3m\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usf3m\OneDrive\Desktop\Problem Solving\Competitive-programming\Problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000AAED3-76D8-40A1-BD09-368B338C3F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20669160-CD4C-4413-A02E-EE5867097AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="348" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>https://leetcode.com/problems/move-zeroes/</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/defuse-the-bomb/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/product-of-array-except-self/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
   </si>
 </sst>
 </file>
@@ -398,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,13 +480,38 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -488,8 +528,14 @@
     <hyperlink ref="A4" r:id="rId9" xr:uid="{966BB0DF-8421-494A-9EF4-44D8CC941C49}"/>
     <hyperlink ref="A3" r:id="rId10" xr:uid="{EB6184E6-108A-405A-8D89-AA977F825EDF}"/>
     <hyperlink ref="A1" r:id="rId11" xr:uid="{D8A677CF-EA2B-45BC-8CC8-2C3284ED9B8D}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{91AB3C25-A6E2-41C4-BC6F-55FA5D273335}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{2A242C2A-CC96-44E9-B641-294FD38D321F}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{1DDB2264-4636-46F7-91B7-010FC1B449AA}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{886062AB-9750-4ADD-B138-C3255FCC5635}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{540FFF02-98B6-4B4B-B663-2B4822549A1E}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{3F6142F8-243D-466D-94C5-3BB39A70B576}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>